--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理婚姻家庭、继承一审案件收结案情况/人民法院审理婚姻家庭、继承一审案件案件判决件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理婚姻家庭、继承一审案件收结案情况/人民法院审理婚姻家庭、继承一审案件案件判决件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,691 +493,465 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>29243</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5002</v>
+      </c>
       <c r="D2" t="n">
-        <v>485029</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>387185</v>
+      </c>
+      <c r="E2" t="n">
+        <v>373883</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9584</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6902</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6861</v>
+      </c>
+      <c r="I2" t="n">
+        <v>321316</v>
+      </c>
+      <c r="J2" t="n">
+        <v>13302</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6838</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1439</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>46893</v>
+      </c>
+      <c r="C3" t="n">
+        <v>26329</v>
+      </c>
       <c r="D3" t="n">
-        <v>476010</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>416136</v>
+      </c>
+      <c r="E3" t="n">
+        <v>381118</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8271</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6958</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6989</v>
+      </c>
+      <c r="I3" t="n">
+        <v>313119</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35018</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5877</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1700</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>38055</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31188</v>
+      </c>
       <c r="D4" t="n">
-        <v>426472</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>412250</v>
+      </c>
+      <c r="E4" t="n">
+        <v>372511</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7629</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6901</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6808</v>
+      </c>
+      <c r="I4" t="n">
+        <v>314468</v>
+      </c>
+      <c r="J4" t="n">
+        <v>39739</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5458</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1743</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26211</v>
+        <v>31635</v>
       </c>
       <c r="C5" t="n">
-        <v>3219</v>
+        <v>21589</v>
       </c>
       <c r="D5" t="n">
-        <v>398241</v>
+        <v>441084</v>
       </c>
       <c r="E5" t="n">
-        <v>390242</v>
+        <v>410394</v>
       </c>
       <c r="F5" t="n">
-        <v>10501</v>
+        <v>8439</v>
       </c>
       <c r="G5" t="n">
-        <v>9102</v>
+        <v>7888</v>
       </c>
       <c r="H5" t="n">
-        <v>4179</v>
+        <v>7193</v>
       </c>
       <c r="I5" t="n">
-        <v>332730</v>
+        <v>355797</v>
       </c>
       <c r="J5" t="n">
-        <v>7999</v>
+        <v>30690</v>
       </c>
       <c r="K5" t="n">
-        <v>11698</v>
+        <v>6635</v>
       </c>
       <c r="L5" t="n">
-        <v>601</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24379</v>
+        <v>38042</v>
       </c>
       <c r="C6" t="n">
-        <v>3617</v>
+        <v>7801</v>
       </c>
       <c r="D6" t="n">
-        <v>398484</v>
+        <v>494784</v>
       </c>
       <c r="E6" t="n">
-        <v>389836</v>
+        <v>476255</v>
       </c>
       <c r="F6" t="n">
-        <v>10782</v>
+        <v>9481</v>
       </c>
       <c r="G6" t="n">
-        <v>8296</v>
+        <v>9337</v>
       </c>
       <c r="H6" t="n">
-        <v>4391</v>
+        <v>8498</v>
       </c>
       <c r="I6" t="n">
-        <v>336430</v>
+        <v>411494</v>
       </c>
       <c r="J6" t="n">
-        <v>8648</v>
+        <v>18529</v>
       </c>
       <c r="K6" t="n">
-        <v>9949</v>
+        <v>7901</v>
       </c>
       <c r="L6" t="n">
-        <v>640</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24649</v>
+        <v>45814</v>
       </c>
       <c r="C7" t="n">
-        <v>4409</v>
+        <v>10155</v>
       </c>
       <c r="D7" t="n">
-        <v>406179</v>
+        <v>587431</v>
       </c>
       <c r="E7" t="n">
-        <v>396333</v>
+        <v>566319</v>
       </c>
       <c r="F7" t="n">
-        <v>11571</v>
+        <v>12438</v>
       </c>
       <c r="G7" t="n">
-        <v>8167</v>
+        <v>11739</v>
       </c>
       <c r="H7" t="n">
-        <v>4717</v>
+        <v>8571</v>
       </c>
       <c r="I7" t="n">
-        <v>343039</v>
+        <v>486744</v>
       </c>
       <c r="J7" t="n">
-        <v>9846</v>
+        <v>21112</v>
       </c>
       <c r="K7" t="n">
-        <v>8907</v>
+        <v>9584</v>
       </c>
       <c r="L7" t="n">
-        <v>720</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27187</v>
+        <v>47056</v>
       </c>
       <c r="C8" t="n">
-        <v>4268</v>
+        <v>11205</v>
       </c>
       <c r="D8" t="n">
-        <v>416077</v>
+        <v>623132</v>
       </c>
       <c r="E8" t="n">
-        <v>404818</v>
+        <v>600889</v>
       </c>
       <c r="F8" t="n">
-        <v>11712</v>
+        <v>14434</v>
       </c>
       <c r="G8" t="n">
-        <v>8893</v>
+        <v>13365</v>
       </c>
       <c r="H8" t="n">
-        <v>5945</v>
+        <v>8615</v>
       </c>
       <c r="I8" t="n">
-        <v>348337</v>
+        <v>516408</v>
       </c>
       <c r="J8" t="n">
-        <v>11259</v>
+        <v>22243</v>
       </c>
       <c r="K8" t="n">
-        <v>8689</v>
+        <v>9626</v>
       </c>
       <c r="L8" t="n">
-        <v>1046</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28353</v>
+        <v>45243</v>
       </c>
       <c r="C9" t="n">
-        <v>4235</v>
+        <v>13748</v>
       </c>
       <c r="D9" t="n">
-        <v>399461</v>
+        <v>651196</v>
       </c>
       <c r="E9" t="n">
-        <v>387710</v>
+        <v>626717</v>
       </c>
       <c r="F9" t="n">
-        <v>10731</v>
+        <v>2031</v>
       </c>
       <c r="G9" t="n">
-        <v>7838</v>
+        <v>28806</v>
       </c>
       <c r="H9" t="n">
-        <v>6260</v>
+        <v>7455</v>
       </c>
       <c r="I9" t="n">
-        <v>332779</v>
+        <v>539023</v>
       </c>
       <c r="J9" t="n">
-        <v>11751</v>
+        <v>23602</v>
       </c>
       <c r="K9" t="n">
-        <v>8009</v>
+        <v>9618</v>
       </c>
       <c r="L9" t="n">
-        <v>1256</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29243</v>
+        <v>46314</v>
       </c>
       <c r="C10" t="n">
-        <v>5002</v>
+        <v>16201</v>
       </c>
       <c r="D10" t="n">
-        <v>387185</v>
+        <v>655674</v>
       </c>
       <c r="E10" t="n">
-        <v>373883</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9584</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6902</v>
-      </c>
+        <v>628619</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>6861</v>
+        <v>7886</v>
       </c>
       <c r="I10" t="n">
-        <v>321316</v>
+        <v>536690</v>
       </c>
       <c r="J10" t="n">
-        <v>13302</v>
+        <v>26563</v>
       </c>
       <c r="K10" t="n">
-        <v>6838</v>
+        <v>9564</v>
       </c>
       <c r="L10" t="n">
-        <v>1439</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46893</v>
+        <v>50858</v>
       </c>
       <c r="C11" t="n">
-        <v>26329</v>
+        <v>19049</v>
       </c>
       <c r="D11" t="n">
-        <v>416136</v>
+        <v>673926</v>
       </c>
       <c r="E11" t="n">
-        <v>381118</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8271</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6958</v>
-      </c>
+        <v>643142</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>6989</v>
+        <v>8558</v>
       </c>
       <c r="I11" t="n">
-        <v>313119</v>
+        <v>539727</v>
       </c>
       <c r="J11" t="n">
-        <v>35018</v>
+        <v>30349</v>
       </c>
       <c r="K11" t="n">
-        <v>5877</v>
+        <v>9914</v>
       </c>
       <c r="L11" t="n">
-        <v>1700</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38055</v>
+        <v>48431</v>
       </c>
       <c r="C12" t="n">
-        <v>31188</v>
+        <v>18502</v>
       </c>
       <c r="D12" t="n">
-        <v>412250</v>
+        <v>613256</v>
       </c>
       <c r="E12" t="n">
-        <v>372511</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7629</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6901</v>
-      </c>
+        <v>584507</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>6808</v>
+        <v>7392</v>
       </c>
       <c r="I12" t="n">
-        <v>314468</v>
+        <v>486425</v>
       </c>
       <c r="J12" t="n">
-        <v>39739</v>
+        <v>28379</v>
       </c>
       <c r="K12" t="n">
-        <v>5458</v>
+        <v>8490</v>
       </c>
       <c r="L12" t="n">
-        <v>1743</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31635</v>
+        <v>56310</v>
       </c>
       <c r="C13" t="n">
-        <v>21589</v>
+        <v>21895</v>
       </c>
       <c r="D13" t="n">
-        <v>441084</v>
+        <v>688420</v>
       </c>
       <c r="E13" t="n">
-        <v>410394</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8439</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7888</v>
-      </c>
+        <v>654048</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>7193</v>
+        <v>8822</v>
       </c>
       <c r="I13" t="n">
-        <v>355797</v>
+        <v>537041</v>
       </c>
       <c r="J13" t="n">
-        <v>30690</v>
+        <v>33680</v>
       </c>
       <c r="K13" t="n">
-        <v>6635</v>
+        <v>8992</v>
       </c>
       <c r="L13" t="n">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>38042</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7801</v>
-      </c>
-      <c r="D14" t="n">
-        <v>494784</v>
-      </c>
-      <c r="E14" t="n">
-        <v>476255</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9481</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9337</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>411494</v>
-      </c>
-      <c r="J14" t="n">
-        <v>18529</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7901</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>45814</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10155</v>
-      </c>
-      <c r="D15" t="n">
-        <v>587431</v>
-      </c>
-      <c r="E15" t="n">
-        <v>566319</v>
-      </c>
-      <c r="F15" t="n">
-        <v>12438</v>
-      </c>
-      <c r="G15" t="n">
-        <v>11739</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8571</v>
-      </c>
-      <c r="I15" t="n">
-        <v>486744</v>
-      </c>
-      <c r="J15" t="n">
-        <v>21112</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9584</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>47056</v>
-      </c>
-      <c r="C16" t="n">
-        <v>11205</v>
-      </c>
-      <c r="D16" t="n">
-        <v>623132</v>
-      </c>
-      <c r="E16" t="n">
-        <v>600889</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14434</v>
-      </c>
-      <c r="G16" t="n">
-        <v>13365</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8615</v>
-      </c>
-      <c r="I16" t="n">
-        <v>516408</v>
-      </c>
-      <c r="J16" t="n">
-        <v>22243</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9626</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>45243</v>
-      </c>
-      <c r="C17" t="n">
-        <v>13748</v>
-      </c>
-      <c r="D17" t="n">
-        <v>651196</v>
-      </c>
-      <c r="E17" t="n">
-        <v>626717</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2031</v>
-      </c>
-      <c r="G17" t="n">
-        <v>28806</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7455</v>
-      </c>
-      <c r="I17" t="n">
-        <v>539023</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23602</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9618</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>46314</v>
-      </c>
-      <c r="C18" t="n">
-        <v>16201</v>
-      </c>
-      <c r="D18" t="n">
-        <v>655674</v>
-      </c>
-      <c r="E18" t="n">
-        <v>628619</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>7886</v>
-      </c>
-      <c r="I18" t="n">
-        <v>536690</v>
-      </c>
-      <c r="J18" t="n">
-        <v>26563</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9564</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>50858</v>
-      </c>
-      <c r="C19" t="n">
-        <v>19049</v>
-      </c>
-      <c r="D19" t="n">
-        <v>673926</v>
-      </c>
-      <c r="E19" t="n">
-        <v>643142</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>8558</v>
-      </c>
-      <c r="I19" t="n">
-        <v>539727</v>
-      </c>
-      <c r="J19" t="n">
-        <v>30349</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9914</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2742</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>48431</v>
-      </c>
-      <c r="C20" t="n">
-        <v>18502</v>
-      </c>
-      <c r="D20" t="n">
-        <v>613256</v>
-      </c>
-      <c r="E20" t="n">
-        <v>584507</v>
-      </c>
-      <c r="F20" t="n">
-        <v>38031</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>7392</v>
-      </c>
-      <c r="I20" t="n">
-        <v>486425</v>
-      </c>
-      <c r="J20" t="n">
-        <v>28379</v>
-      </c>
-      <c r="K20" t="n">
-        <v>8490</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2485</v>
+        <v>2963</v>
       </c>
     </row>
   </sheetData>
